--- a/xlsx/country_comparison/understood_mean.xlsx
+++ b/xlsx/country_comparison/understood_mean.xlsx
@@ -32,16 +32,16 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">nr_understood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gcs_understood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">both_understood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_understood</t>
+    <t xml:space="preserve">With NR,&lt;br&gt;typical [country] people win and richest lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With GCS,&lt;br&gt;typical [country] people lose and poorest humans win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With GCS+NR,&lt;br&gt;typical [country] people neither win nor lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of correct answers&lt;br&gt;to understanding questions</t>
   </si>
 </sst>
 </file>
@@ -398,19 +398,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.597014925373134</v>
+        <v>0.626760563380282</v>
       </c>
       <c r="C2" t="n">
-        <v>0.741935483870968</v>
+        <v>0.646408839779006</v>
       </c>
       <c r="D2" t="n">
-        <v>0.793103448275862</v>
+        <v>0.770491803278688</v>
       </c>
       <c r="E2" t="n">
-        <v>0.544117647058823</v>
+        <v>0.58695652173913</v>
       </c>
       <c r="F2" t="n">
-        <v>0.61046511627907</v>
+        <v>0.696462533282617</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.522388059701492</v>
+        <v>0.507042253521127</v>
       </c>
       <c r="C3" t="n">
-        <v>0.806451612903226</v>
+        <v>0.646408839779006</v>
       </c>
       <c r="D3" t="n">
-        <v>0.793103448275862</v>
+        <v>0.713114754098361</v>
       </c>
       <c r="E3" t="n">
-        <v>0.470588235294118</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="F3" t="n">
-        <v>0.529069767441861</v>
+        <v>0.619246861924686</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.492537313432836</v>
+        <v>0.549295774647887</v>
       </c>
       <c r="C4" t="n">
-        <v>0.67741935483871</v>
+        <v>0.729281767955801</v>
       </c>
       <c r="D4" t="n">
-        <v>0.586206896551724</v>
+        <v>0.663934426229508</v>
       </c>
       <c r="E4" t="n">
-        <v>0.485294117647059</v>
+        <v>0.58695652173913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.430232558139535</v>
+        <v>0.540509699505515</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +458,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>1.61194029850746</v>
+        <v>1.6830985915493</v>
       </c>
       <c r="C5" t="n">
-        <v>2.2258064516129</v>
+        <v>2.02209944751381</v>
       </c>
       <c r="D5" t="n">
-        <v>2.17241379310345</v>
+        <v>2.14754098360656</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5</v>
+        <v>1.58695652173913</v>
       </c>
       <c r="F5" t="n">
-        <v>1.56976744186047</v>
+        <v>1.85621909471282</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/understood_mean.xlsx
+++ b/xlsx/country_comparison/understood_mean.xlsx
@@ -398,19 +398,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.626760563380282</v>
+        <v>0.740322580645161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.646408839779006</v>
+        <v>0.718626155878468</v>
       </c>
       <c r="D2" t="n">
-        <v>0.770491803278688</v>
+        <v>0.753222836095764</v>
       </c>
       <c r="E2" t="n">
-        <v>0.58695652173913</v>
+        <v>0.708074534161491</v>
       </c>
       <c r="F2" t="n">
-        <v>0.696462533282617</v>
+        <v>0.695043511161559</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.507042253521127</v>
+        <v>0.614516129032258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.646408839779006</v>
+        <v>0.730515191545575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.713114754098361</v>
+        <v>0.692449355432781</v>
       </c>
       <c r="E3" t="n">
-        <v>0.41304347826087</v>
+        <v>0.68167701863354</v>
       </c>
       <c r="F3" t="n">
-        <v>0.619246861924686</v>
+        <v>0.617858494135452</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.549295774647887</v>
+        <v>0.620967741935484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.729281767955801</v>
+        <v>0.624834874504623</v>
       </c>
       <c r="D4" t="n">
-        <v>0.663934426229508</v>
+        <v>0.591160220994475</v>
       </c>
       <c r="E4" t="n">
-        <v>0.58695652173913</v>
+        <v>0.596273291925466</v>
       </c>
       <c r="F4" t="n">
-        <v>0.540509699505515</v>
+        <v>0.540295119182747</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +458,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>1.6830985915493</v>
+        <v>1.9758064516129</v>
       </c>
       <c r="C5" t="n">
-        <v>2.02209944751381</v>
+        <v>2.07397622192867</v>
       </c>
       <c r="D5" t="n">
-        <v>2.14754098360656</v>
+        <v>2.03683241252302</v>
       </c>
       <c r="E5" t="n">
-        <v>1.58695652173913</v>
+        <v>1.9860248447205</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85621909471282</v>
+        <v>1.85319712447976</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/understood_mean.xlsx
+++ b/xlsx/country_comparison/understood_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">With NR,&lt;br&gt;typical [country] people win and richest lose</t>
@@ -392,85 +395,100 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.740322580645161</v>
+        <v>0.687440027270949</v>
       </c>
       <c r="C2" t="n">
-        <v>0.718626155878468</v>
+        <v>0.731443172490246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.753222836095764</v>
+        <v>0.774671321453343</v>
       </c>
       <c r="E2" t="n">
-        <v>0.708074534161491</v>
+        <v>0.73517933280281</v>
       </c>
       <c r="F2" t="n">
-        <v>0.695043511161559</v>
+        <v>0.738341979664565</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.71392352646231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.614516129032258</v>
+        <v>0.615019199716537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.730515191545575</v>
+        <v>0.685614773480431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.692449355432781</v>
+        <v>0.623905576424699</v>
       </c>
       <c r="E3" t="n">
-        <v>0.68167701863354</v>
+        <v>0.734245673294998</v>
       </c>
       <c r="F3" t="n">
-        <v>0.617858494135452</v>
+        <v>0.688918219278771</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.649877745073859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.620967741935484</v>
+        <v>0.547031004920312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.624834874504623</v>
+        <v>0.606541445737244</v>
       </c>
       <c r="D4" t="n">
-        <v>0.591160220994475</v>
+        <v>0.616095367540772</v>
       </c>
       <c r="E4" t="n">
-        <v>0.596273291925466</v>
+        <v>0.611240151737248</v>
       </c>
       <c r="F4" t="n">
-        <v>0.540295119182747</v>
+        <v>0.586897111806742</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.599894528321775</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.9758064516129</v>
+        <v>1.8494902319078</v>
       </c>
       <c r="C5" t="n">
-        <v>2.07397622192867</v>
+        <v>2.02359939170792</v>
       </c>
       <c r="D5" t="n">
-        <v>2.03683241252302</v>
+        <v>2.01467226541881</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9860248447205</v>
+        <v>2.08066515783506</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85319712447976</v>
+        <v>2.01415731075008</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.96369579985794</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/understood_mean.xlsx
+++ b/xlsx/country_comparison/understood_mean.xlsx
@@ -404,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.687440027270949</v>
+        <v>0.681933990386422</v>
       </c>
       <c r="C2" t="n">
-        <v>0.731443172490246</v>
+        <v>0.725407383879247</v>
       </c>
       <c r="D2" t="n">
-        <v>0.774671321453343</v>
+        <v>0.761916925756655</v>
       </c>
       <c r="E2" t="n">
-        <v>0.73517933280281</v>
+        <v>0.729055924894397</v>
       </c>
       <c r="F2" t="n">
-        <v>0.738341979664565</v>
+        <v>0.73915414058202</v>
       </c>
       <c r="G2" t="n">
-        <v>0.71392352646231</v>
+        <v>0.695293861335941</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.615019199716537</v>
+        <v>0.606501484420851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.685614773480431</v>
+        <v>0.678420146171452</v>
       </c>
       <c r="D3" t="n">
-        <v>0.623905576424699</v>
+        <v>0.616072801488381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.734245673294998</v>
+        <v>0.722385287430049</v>
       </c>
       <c r="F3" t="n">
-        <v>0.688918219278771</v>
+        <v>0.689572588943602</v>
       </c>
       <c r="G3" t="n">
-        <v>0.649877745073859</v>
+        <v>0.670601156657779</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.547031004920312</v>
+        <v>0.539517132921241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.606541445737244</v>
+        <v>0.605509925687618</v>
       </c>
       <c r="D4" t="n">
-        <v>0.616095367540772</v>
+        <v>0.625018054123209</v>
       </c>
       <c r="E4" t="n">
-        <v>0.611240151737248</v>
+        <v>0.594864664409887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.586897111806742</v>
+        <v>0.588955085117747</v>
       </c>
       <c r="G4" t="n">
-        <v>0.599894528321775</v>
+        <v>0.607356765891969</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +473,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8494902319078</v>
+        <v>1.82795260772851</v>
       </c>
       <c r="C5" t="n">
-        <v>2.02359939170792</v>
+        <v>2.00933745573832</v>
       </c>
       <c r="D5" t="n">
-        <v>2.01467226541881</v>
+        <v>2.00300778136825</v>
       </c>
       <c r="E5" t="n">
-        <v>2.08066515783506</v>
+        <v>2.04630587673433</v>
       </c>
       <c r="F5" t="n">
-        <v>2.01415731075008</v>
+        <v>2.01768181464337</v>
       </c>
       <c r="G5" t="n">
-        <v>1.96369579985794</v>
+        <v>1.97325178388569</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/understood_mean.xlsx
+++ b/xlsx/country_comparison/understood_mean.xlsx
@@ -35,16 +35,18 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">With NR,&lt;br&gt;typical [country] people win and richest lose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With GCS,&lt;br&gt;typical [country] people lose and poorest humans win</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With GCS+NR,&lt;br&gt;typical [country] people neither win nor lose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of correct answers&lt;br&gt;to understanding questions</t>
+    <t xml:space="preserve">With NR, typical [country] people win and richest lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With GCS, typical [country] people
+lose and poorest humans win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With GCS+NR, typical [country]
+people neither win nor lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of correct answers to understanding questions</t>
   </si>
 </sst>
 </file>
@@ -404,22 +406,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.681933990386422</v>
+        <v>0.68100345730314</v>
       </c>
       <c r="C2" t="n">
-        <v>0.725407383879247</v>
+        <v>0.727113110682847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.761916925756655</v>
+        <v>0.761945277135128</v>
       </c>
       <c r="E2" t="n">
-        <v>0.729055924894397</v>
+        <v>0.729079047103668</v>
       </c>
       <c r="F2" t="n">
-        <v>0.73915414058202</v>
+        <v>0.734931000105679</v>
       </c>
       <c r="G2" t="n">
-        <v>0.695293861335941</v>
+        <v>0.695286686132819</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +429,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.606501484420851</v>
+        <v>0.59967749926466</v>
       </c>
       <c r="C3" t="n">
-        <v>0.678420146171452</v>
+        <v>0.67661016377709</v>
       </c>
       <c r="D3" t="n">
-        <v>0.616072801488381</v>
+        <v>0.616162668774163</v>
       </c>
       <c r="E3" t="n">
-        <v>0.722385287430049</v>
+        <v>0.722426798680198</v>
       </c>
       <c r="F3" t="n">
-        <v>0.689572588943602</v>
+        <v>0.665327366363281</v>
       </c>
       <c r="G3" t="n">
-        <v>0.670601156657779</v>
+        <v>0.670606596653044</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +452,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.539517132921241</v>
+        <v>0.535831633062902</v>
       </c>
       <c r="C4" t="n">
-        <v>0.605509925687618</v>
+        <v>0.603768338093299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.625018054123209</v>
+        <v>0.625023753321106</v>
       </c>
       <c r="E4" t="n">
-        <v>0.594864664409887</v>
+        <v>0.594884657198256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.588955085117747</v>
+        <v>0.565975125377703</v>
       </c>
       <c r="G4" t="n">
-        <v>0.607356765891969</v>
+        <v>0.607350064811472</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +475,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.82795260772851</v>
+        <v>1.8165125896307</v>
       </c>
       <c r="C5" t="n">
-        <v>2.00933745573832</v>
+        <v>2.00749161255324</v>
       </c>
       <c r="D5" t="n">
-        <v>2.00300778136825</v>
+        <v>2.0031316992304</v>
       </c>
       <c r="E5" t="n">
-        <v>2.04630587673433</v>
+        <v>2.04639050298212</v>
       </c>
       <c r="F5" t="n">
-        <v>2.01768181464337</v>
+        <v>1.96623349184666</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97325178388569</v>
+        <v>1.97324334759733</v>
       </c>
     </row>
   </sheetData>
